--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppa-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppa-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Nppa</t>
   </si>
   <si>
     <t>Npr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H2">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I2">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J2">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>11.94076733333334</v>
+        <v>19.84200033333333</v>
       </c>
       <c r="N2">
-        <v>35.82230200000001</v>
+        <v>59.52600099999999</v>
       </c>
       <c r="O2">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="P2">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="Q2">
-        <v>0.3204981557382223</v>
+        <v>2.188433742764333</v>
       </c>
       <c r="R2">
-        <v>2.884483401644001</v>
+        <v>19.695903684879</v>
       </c>
       <c r="S2">
-        <v>0.02057136724281305</v>
+        <v>0.06511716268457511</v>
       </c>
       <c r="T2">
-        <v>0.02057136724281305</v>
+        <v>0.06511716268457513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H3">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I3">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J3">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.745718</v>
       </c>
       <c r="O3">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="P3">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="Q3">
-        <v>0.3466536338662222</v>
+        <v>1.424460491791333</v>
       </c>
       <c r="R3">
-        <v>3.119882704795999</v>
+        <v>12.820144426122</v>
       </c>
       <c r="S3">
-        <v>0.02225017236649034</v>
+        <v>0.0423850280541552</v>
       </c>
       <c r="T3">
-        <v>0.02225017236649034</v>
+        <v>0.04238502805415521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H4">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I4">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J4">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.061006666666666</v>
+        <v>9.805585333333333</v>
       </c>
       <c r="N4">
-        <v>27.18302</v>
+        <v>29.416756</v>
       </c>
       <c r="O4">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="P4">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="Q4">
-        <v>0.2432034596044444</v>
+        <v>1.081487423169333</v>
       </c>
       <c r="R4">
-        <v>2.18883113644</v>
+        <v>9.733386808523999</v>
       </c>
       <c r="S4">
-        <v>0.01561016059740471</v>
+        <v>0.0321798147687504</v>
       </c>
       <c r="T4">
-        <v>0.01561016059740471</v>
+        <v>0.0321798147687504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H5">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I5">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J5">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.08745933333333333</v>
+        <v>0.02644566666666667</v>
       </c>
       <c r="N5">
-        <v>0.262378</v>
+        <v>0.079337</v>
       </c>
       <c r="O5">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="P5">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="Q5">
-        <v>0.002347466812888889</v>
+        <v>0.002916771913666666</v>
       </c>
       <c r="R5">
-        <v>0.021127201316</v>
+        <v>0.026250947223</v>
       </c>
       <c r="S5">
-        <v>0.0001506735718557339</v>
+        <v>8.678897035105948E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001506735718557339</v>
+        <v>8.678897035105948E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>0.111884</v>
       </c>
       <c r="I6">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J6">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>11.94076733333334</v>
+        <v>19.84200033333333</v>
       </c>
       <c r="N6">
-        <v>35.82230200000001</v>
+        <v>59.52600099999999</v>
       </c>
       <c r="O6">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="P6">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="Q6">
-        <v>0.4453269374408889</v>
+        <v>0.7400007884315554</v>
       </c>
       <c r="R6">
-        <v>4.007942436968</v>
+        <v>6.660007095883999</v>
       </c>
       <c r="S6">
-        <v>0.02858357781221151</v>
+        <v>0.02201883053865915</v>
       </c>
       <c r="T6">
-        <v>0.02858357781221151</v>
+        <v>0.02201883053865916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.111884</v>
       </c>
       <c r="I7">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J7">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>38.745718</v>
       </c>
       <c r="O7">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="P7">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="Q7">
         <v>0.4816695458568888</v>
@@ -883,10 +883,10 @@
         <v>4.335025912711999</v>
       </c>
       <c r="S7">
-        <v>0.03091625003169824</v>
+        <v>0.01433214703505239</v>
       </c>
       <c r="T7">
-        <v>0.03091625003169824</v>
+        <v>0.01433214703505239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>0.111884</v>
       </c>
       <c r="I8">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J8">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.061006666666666</v>
+        <v>9.805585333333333</v>
       </c>
       <c r="N8">
-        <v>27.18302</v>
+        <v>29.416756</v>
       </c>
       <c r="O8">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="P8">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="Q8">
-        <v>0.3379272232977777</v>
+        <v>0.3656960364782222</v>
       </c>
       <c r="R8">
-        <v>3.04134500968</v>
+        <v>3.291264328304</v>
       </c>
       <c r="S8">
-        <v>0.02169006244603994</v>
+        <v>0.0108813384820036</v>
       </c>
       <c r="T8">
-        <v>0.02169006244603994</v>
+        <v>0.0108813384820036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,40 +977,40 @@
         <v>0.111884</v>
       </c>
       <c r="I9">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J9">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.08745933333333333</v>
+        <v>0.02644566666666667</v>
       </c>
       <c r="N9">
-        <v>0.262378</v>
+        <v>0.079337</v>
       </c>
       <c r="O9">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="P9">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="Q9">
-        <v>0.003261766683555555</v>
+        <v>0.0009862823231111112</v>
       </c>
       <c r="R9">
-        <v>0.029355900152</v>
+        <v>0.008876540908</v>
       </c>
       <c r="S9">
-        <v>0.0002093584599675484</v>
+        <v>2.934697324024172E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002093584599675484</v>
+        <v>2.934697324024172E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,40 +1039,40 @@
         <v>1.182103</v>
       </c>
       <c r="I10">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J10">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94076733333334</v>
+        <v>19.84200033333333</v>
       </c>
       <c r="N10">
-        <v>35.82230200000001</v>
+        <v>59.52600099999999</v>
       </c>
       <c r="O10">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="P10">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="Q10">
-        <v>4.705072295678446</v>
+        <v>7.818429373344777</v>
       </c>
       <c r="R10">
-        <v>42.34565066110601</v>
+        <v>70.365864360103</v>
       </c>
       <c r="S10">
-        <v>0.3019979003481165</v>
+        <v>0.2326384973386776</v>
       </c>
       <c r="T10">
-        <v>0.3019979003481165</v>
+        <v>0.2326384973386776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,10 +1101,10 @@
         <v>1.182103</v>
       </c>
       <c r="I11">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J11">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>38.745718</v>
       </c>
       <c r="O11">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="P11">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="Q11">
         <v>5.089047720550445</v>
@@ -1131,10 +1131,10 @@
         <v>45.801429484954</v>
       </c>
       <c r="S11">
-        <v>0.3266435943586267</v>
+        <v>0.1514253513154387</v>
       </c>
       <c r="T11">
-        <v>0.3266435943586267</v>
+        <v>0.1514253513154387</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1163,10 +1163,10 @@
         <v>1.182103</v>
       </c>
       <c r="I12">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J12">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.061006666666666</v>
+        <v>9.805585333333333</v>
       </c>
       <c r="N12">
-        <v>27.18302</v>
+        <v>29.416756</v>
       </c>
       <c r="O12">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="P12">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="Q12">
-        <v>3.570347721228889</v>
+        <v>3.863737279763111</v>
       </c>
       <c r="R12">
-        <v>32.13312949106</v>
+        <v>34.773635517868</v>
       </c>
       <c r="S12">
-        <v>0.2291649198066852</v>
+        <v>0.1149660618461255</v>
       </c>
       <c r="T12">
-        <v>0.2291649198066851</v>
+        <v>0.1149660618461255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,40 +1225,288 @@
         <v>1.182103</v>
       </c>
       <c r="I13">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J13">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.08745933333333333</v>
+        <v>0.02644566666666667</v>
       </c>
       <c r="N13">
-        <v>0.262378</v>
+        <v>0.079337</v>
       </c>
       <c r="O13">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="P13">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="Q13">
-        <v>0.03446198010377778</v>
+        <v>0.01042050063455556</v>
       </c>
       <c r="R13">
-        <v>0.310157820934</v>
+        <v>0.09378450571100001</v>
       </c>
       <c r="S13">
-        <v>0.002211962958090692</v>
+        <v>0.0003100635042384028</v>
       </c>
       <c r="T13">
-        <v>0.002211962958090691</v>
+        <v>0.0003100635042384028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.742465</v>
+      </c>
+      <c r="I14">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J14">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.84200033333333</v>
+      </c>
+      <c r="N14">
+        <v>59.52600099999999</v>
+      </c>
+      <c r="O14">
+        <v>0.4658919963347263</v>
+      </c>
+      <c r="P14">
+        <v>0.4658919963347263</v>
+      </c>
+      <c r="Q14">
+        <v>4.91066359249611</v>
+      </c>
+      <c r="R14">
+        <v>44.195972332465</v>
+      </c>
+      <c r="S14">
+        <v>0.1461175057728144</v>
+      </c>
+      <c r="T14">
+        <v>0.1461175057728145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.742465</v>
+      </c>
+      <c r="I15">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J15">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.91523933333333</v>
+      </c>
+      <c r="N15">
+        <v>38.745718</v>
+      </c>
+      <c r="O15">
+        <v>0.3032510097300563</v>
+      </c>
+      <c r="P15">
+        <v>0.3032510097300563</v>
+      </c>
+      <c r="Q15">
+        <v>3.196371057207778</v>
+      </c>
+      <c r="R15">
+        <v>28.76733951487</v>
+      </c>
+      <c r="S15">
+        <v>0.09510848332541003</v>
+      </c>
+      <c r="T15">
+        <v>0.09510848332541004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.742465</v>
+      </c>
+      <c r="I16">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J16">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.805585333333333</v>
+      </c>
+      <c r="N16">
+        <v>29.416756</v>
+      </c>
+      <c r="O16">
+        <v>0.2302360472448257</v>
+      </c>
+      <c r="P16">
+        <v>0.2302360472448257</v>
+      </c>
+      <c r="Q16">
+        <v>2.426767971504444</v>
+      </c>
+      <c r="R16">
+        <v>21.84091174354</v>
+      </c>
+      <c r="S16">
+        <v>0.07220883214794614</v>
+      </c>
+      <c r="T16">
+        <v>0.07220883214794614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.742465</v>
+      </c>
+      <c r="I17">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J17">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.02644566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.079337</v>
+      </c>
+      <c r="O17">
+        <v>0.0006209466903917867</v>
+      </c>
+      <c r="P17">
+        <v>0.0006209466903917867</v>
+      </c>
+      <c r="Q17">
+        <v>0.006544993967222223</v>
+      </c>
+      <c r="R17">
+        <v>0.05890494570500001</v>
+      </c>
+      <c r="S17">
+        <v>0.0001947472425620828</v>
+      </c>
+      <c r="T17">
+        <v>0.0001947472425620828</v>
       </c>
     </row>
   </sheetData>
